--- a/python/openpyxl/pivot/sample-colored.xlsx
+++ b/python/openpyxl/pivot/sample-colored.xlsx
@@ -20,15 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t xml:space="preserve">Pivot Example</t>
   </si>
   <si>
+    <t xml:space="preserve">Pool 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
   </si>
   <si>
     <t xml:space="preserve">Puppy</t>
@@ -144,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -168,6 +177,41 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -192,27 +236,6 @@
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -241,10 +264,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -252,14 +281,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,131 +295,135 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,12 +435,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Field" xfId="20"/>
-    <cellStyle name="Pivot Table Category" xfId="21"/>
-    <cellStyle name="Pivot Table Title" xfId="22"/>
-    <cellStyle name="Pivot Table Corner" xfId="23"/>
-    <cellStyle name="Pivot Table Value" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -483,16 +510,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:H18"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.45"/>
@@ -527,247 +554,271 @@
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="E12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="E13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="12"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="31"/>
+      <c r="C16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="18" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="G16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="n">
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="21" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="21" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="25" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="30"/>
-      <c r="C15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33" t="n">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33" t="n">
+      <c r="E19" s="33"/>
+      <c r="F19" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33" t="n">
+      <c r="G19" s="35"/>
+      <c r="H19" s="34" t="n">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/python/openpyxl/pivot/sample-colored.xlsx
+++ b/python/openpyxl/pivot/sample-colored.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t xml:space="preserve">Pivot Example</t>
   </si>
@@ -513,10 +513,10 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.8"/>
@@ -721,12 +721,8 @@
       <c r="F13" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
